--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,117 +17,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮橋頭段北勢坑小 段0304-0004地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮文昌段0351-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮文昌段0352-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0751-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0756-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0757-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0465-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0460-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467- 0004 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467 - 0005 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0468 - 0002 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0468-0003 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0493-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0499-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0500-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0527 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0528 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0535-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0647-0012 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0647-0013 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮營子段0007-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮營子段0193-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0008 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0013 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0016 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0028 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0035 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0041 地號</t>
-  </si>
-  <si>
-    <t>3，000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮文昌段03510000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮文昌段03520000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07510000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07560001地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07570000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04650000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04600001地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670004地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670005地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04680002地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04680003地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04930001地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04990000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05000000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05270000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05280000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05350000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段06470012地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段06470013地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮營子段00070000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮營子段01930001地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470008地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470013地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470016地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470028地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470035地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470041地號</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
   <si>
     <t>3分之1</t>
@@ -139,10 +160,10 @@
     <t>4分之1</t>
   </si>
   <si>
-    <t>99989分之 41355</t>
-  </si>
-  <si>
-    <t>99989分之 307</t>
+    <t>99989分之41355</t>
+  </si>
+  <si>
+    <t>99989分之307</t>
   </si>
   <si>
     <t>6分之1</t>
@@ -178,31 +199,31 @@
     <t>陳麗珠</t>
   </si>
   <si>
-    <t>94年12月 21日</t>
-  </si>
-  <si>
-    <t>70年04月 03日</t>
-  </si>
-  <si>
-    <t>95年01月 05日</t>
-  </si>
-  <si>
-    <t>91年09月 03日</t>
-  </si>
-  <si>
-    <t>65年06月 07日</t>
-  </si>
-  <si>
-    <t>94年06月 22日</t>
+    <t>94年12月21日</t>
+  </si>
+  <si>
+    <t>70年04月03日</t>
+  </si>
+  <si>
+    <t>95年01月05日</t>
+  </si>
+  <si>
+    <t>91年09月03日</t>
+  </si>
+  <si>
+    <t>65年06月07日</t>
+  </si>
+  <si>
+    <t>94年06月22日</t>
   </si>
   <si>
     <t>94年06月</t>
   </si>
   <si>
-    <t>85年05月 20日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
   </si>
   <si>
     <t>買賣</t>
@@ -211,52 +232,64 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>55，084(超過五 年）</t>
-  </si>
-  <si>
-    <t>1,271,064(超 過五年）</t>
-  </si>
-  <si>
-    <t>3，515’175(田）</t>
-  </si>
-  <si>
-    <t>26，095(道)</t>
-  </si>
-  <si>
-    <t>2,956，408(超 過五年）</t>
+    <t>55084(超過五年）</t>
+  </si>
+  <si>
+    <t>1271064(超過五年）</t>
+  </si>
+  <si>
+    <t>3515175(田）</t>
+  </si>
+  <si>
+    <t>26095(道)</t>
+  </si>
+  <si>
+    <t>2956408(超過五年）</t>
   </si>
   <si>
     <t>(超過五年)</t>
   </si>
   <si>
-    <t>895，776(超過 五年）</t>
-  </si>
-  <si>
-    <t>66，517(超過五 年）</t>
-  </si>
-  <si>
-    <t>18,430(超過五 年）</t>
-  </si>
-  <si>
-    <t>466，323(超過 五年）</t>
-  </si>
-  <si>
-    <t>584,256(超過 五年）</t>
+    <t>895776(超過五年）</t>
+  </si>
+  <si>
+    <t>66517(超過五年）</t>
+  </si>
+  <si>
+    <t>18430(超過五年）</t>
+  </si>
+  <si>
+    <t>466323(超過五年）</t>
+  </si>
+  <si>
+    <t>584256(超過五年）</t>
   </si>
   <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>44，460 (超過五 年）</t>
-  </si>
-  <si>
-    <t>44，543 (超過五 年）</t>
-  </si>
-  <si>
-    <t>100,989(超過 五年）</t>
-  </si>
-  <si>
-    <t>104，894(超過 五年）</t>
+    <t>44460(超過五年）</t>
+  </si>
+  <si>
+    <t>44543(超過五年）</t>
+  </si>
+  <si>
+    <t>100989(超過五年）</t>
+  </si>
+  <si>
+    <t>104894(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-25</t>
+  </si>
+  <si>
+    <t>tmpfac21</t>
   </si>
   <si>
     <t>建</t>
@@ -274,19 +307,19 @@
     <t>權利範圍</t>
   </si>
   <si>
-    <t>臺中市北區錦村段14340 - 000建 號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段00280-000 建號</t>
-  </si>
-  <si>
-    <t>851，264(超過 五年）</t>
-  </si>
-  <si>
-    <t>94年04月+ 14日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>臺中市北區錦村段14340000建號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段00280000建號</t>
+  </si>
+  <si>
+    <t>851264(超過五年）</t>
+  </si>
+  <si>
+    <t>94年04月+14日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>存放.機構(應敘明分支機構）</t>
@@ -313,7 +346,7 @@
     <t>臺灣銀行南投分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行集集分 行</t>
+    <t>合作金庫商業銀行集集分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -325,7 +358,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1,609,930</t>
+    <t>1609930</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -343,16 +376,16 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>國泰人壽鍾愛终身壽險(分期 繳納）</t>
-  </si>
-  <si>
-    <t>國泰住院醫療终身健康保險 (分期繳納）</t>
-  </si>
-  <si>
-    <t>國泰福壽養老保險（分期繳 納）</t>
-  </si>
-  <si>
-    <t>南山康寧終身壽險（分期繳 納）</t>
+    <t>國泰人壽鍾愛终身壽險(分期繳納）</t>
+  </si>
+  <si>
+    <t>國泰住院醫療终身健康保險(分期繳納）</t>
+  </si>
+  <si>
+    <t>國泰福壽養老保險（分期繳納）</t>
+  </si>
+  <si>
+    <t>南山康寧終身壽險（分期繳納）</t>
   </si>
 </sst>
 </file>
@@ -711,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,785 +772,1436 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>178.42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>49.35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
         <v>104869</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>999.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>47.25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>86751</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>527.92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>159.96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>14.27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>4.84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>73.63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>92.69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>14.19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>143.68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>9.52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>59.1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>43.52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
         <v>19.55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>7.02</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>9.9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>182.51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>21.32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>292</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>636</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>579</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1535,20 +2219,20 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1557,25 +2241,25 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>70.06</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1583,25 +2267,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>181.12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1619,19 +2303,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1639,19 +2323,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1659,16 +2343,16 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>860288</v>
@@ -1679,16 +2363,16 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2">
         <v>354932</v>
@@ -1699,16 +2383,16 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2">
         <v>19499</v>
@@ -1719,16 +2403,16 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2">
         <v>113369</v>
@@ -1739,16 +2423,16 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2">
         <v>726427</v>
@@ -1759,16 +2443,16 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2">
         <v>1079</v>
@@ -1789,13 +2473,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1803,13 +2487,13 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1817,13 +2501,13 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1831,13 +2515,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1845,13 +2529,13 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣集集鎮文昌段03510000地號</t>
@@ -148,12 +151,6 @@
     <t>臺中市北區錦村段01470041地號</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>陳麗珠</t>
   </si>
   <si>
-    <t>94年12月21日</t>
-  </si>
-  <si>
     <t>70年04月03日</t>
   </si>
   <si>
@@ -223,12 +217,12 @@
     <t>85年05月20日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>共有物分割</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -292,54 +286,33 @@
     <t>tmpfac21</t>
   </si>
   <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標.</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍</t>
-  </si>
-  <si>
     <t>臺中市北區錦村段14340000建號</t>
   </si>
   <si>
     <t>南投縣集集鎮八張段00280000建號</t>
   </si>
   <si>
+    <t>94年04月+14日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>851264(超過五年）</t>
   </si>
   <si>
-    <t>94年04月+14日</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>存放.機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>集集郵局（第9支局）</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>1609930</t>
+  </si>
+  <si>
     <t>南投縣集集鎮農會信用部</t>
   </si>
   <si>
@@ -349,34 +322,16 @@
     <t>合作金庫商業銀行集集分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>1609930</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>國泰人壽鍾愛终身壽險(分期繳納）</t>
+  </si>
+  <si>
     <t>南山人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽鍾愛终身壽險(分期繳納）</t>
   </si>
   <si>
     <t>國泰住院醫療终身健康保險(分期繳納）</t>
@@ -744,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,201 +748,231 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2">
-        <v>27000</v>
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2">
         <v>1706</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>178.42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>5.86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>178.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>178.42</v>
+        <v>49.35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="H4" s="2">
+        <v>104869</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2">
         <v>1706</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>12.3375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>49.35</v>
+        <v>999.89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="2">
-        <v>104869</v>
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2">
         <v>1706</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.413595495504505</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>413.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
@@ -996,1212 +981,1315 @@
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00307033773715109</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>47.25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2">
+        <v>86751</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>527.92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>527.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>999.89</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>47.25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2">
-        <v>86751</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>527.92</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.481666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>159.96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>159.96</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9.51333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14.27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.22666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>73.63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>49.0866666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>92.69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>73.63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2">
         <v>1706</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>61.7933333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="2">
-        <v>92.69</v>
+        <v>14.19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="2">
         <v>1706</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" s="2">
-        <v>14.19</v>
+        <v>143.68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="2">
         <v>1706</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.99111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="2">
-        <v>143.68</v>
+        <v>9.52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="2">
         <v>1706</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.264444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="2">
-        <v>9.52</v>
+        <v>59.1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2">
         <v>1706</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4.925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="2">
-        <v>59.1</v>
+        <v>43.52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="2">
         <v>1706</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.62666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" s="2">
-        <v>43.52</v>
+        <v>19.55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" s="2">
         <v>1706</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3.25833333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="2">
-        <v>19.55</v>
+        <v>7.02</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7.02</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>182.51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M23" s="2">
         <v>1706</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>12.1673333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C24" s="2">
-        <v>182.51</v>
+        <v>21.32</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M24" s="2">
         <v>1706</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>8.528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C25" s="2">
-        <v>21.32</v>
+        <v>292</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M25" s="2">
         <v>1706</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" s="2">
-        <v>292</v>
+        <v>636</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M26" s="2">
         <v>1706</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C27" s="2">
-        <v>636</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="2">
         <v>1706</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M28" s="2">
         <v>1706</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" s="2">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29" s="2">
         <v>1706</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M30" s="2">
         <v>1706</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2">
-        <v>579</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="2">
-        <v>44</v>
+      <c r="P30" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2219,73 +2307,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C1" s="1">
+        <v>70.06</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
-        <v>70.06</v>
+        <v>181.12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2">
-        <v>181.12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2303,158 +2369,138 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="2">
+        <v>860288</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
-        <v>860288</v>
+        <v>354932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
-        <v>354932</v>
+        <v>19499</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>19499</v>
+        <v>113369</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
-        <v>113369</v>
+        <v>726427</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
-        <v>726427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2">
         <v>1079</v>
       </c>
     </row>
@@ -2465,7 +2511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2473,69 +2519,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>119</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+  </si>
+  <si>
     <t>南投縣集集鎮文昌段03510000地號</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>臺中市北區錦村段01470041地號</t>
   </si>
   <si>
+    <t>3分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>陳麗珠</t>
   </si>
   <si>
+    <t>94年12月21日</t>
+  </si>
+  <si>
     <t>70年04月03日</t>
   </si>
   <si>
@@ -217,10 +226,10 @@
     <t>85年05月20日</t>
   </si>
   <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
     <t>買賣</t>
-  </si>
-  <si>
-    <t>共有物分割</t>
   </si>
   <si>
     <t>繼承</t>
@@ -699,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,1538 +766,1591 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5.86</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="H2" s="2">
+        <v>27000</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2">
         <v>1706</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>5.86</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>178.42</v>
+        <v>5.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2">
         <v>1706</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>178.42</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>49.35</v>
+        <v>178.42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2">
-        <v>104869</v>
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" s="2">
         <v>1706</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>12.3375</v>
+        <v>178.42</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>999.89</v>
+        <v>49.35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
+        <v>104869</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2">
         <v>1706</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.413595495504505</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>413.55</v>
+        <v>12.3375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2">
         <v>1706</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00307033773715109</v>
+        <v>0.413595495504505</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.07</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>47.25</v>
+        <v>999.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="2">
-        <v>86751</v>
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2">
         <v>1706</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
-        <v>0.25</v>
+        <v>0.00307033773715109</v>
       </c>
       <c r="Q7" s="2">
-        <v>11.8125</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>527.92</v>
+        <v>47.25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="H8" s="2">
+        <v>86751</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2">
         <v>1706</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>527.92</v>
+        <v>11.8125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>2.89</v>
+        <v>527.92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2">
         <v>1706</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>0.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.481666666666667</v>
+        <v>527.92</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>159.96</v>
+        <v>2.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2">
         <v>1706</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q10" s="2">
-        <v>159.96</v>
+        <v>0.481666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>14.27</v>
+        <v>159.96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="2">
         <v>1706</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>9.51333333333333</v>
+        <v>159.96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>4.84</v>
+        <v>14.27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2">
         <v>1706</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.22666666666667</v>
+        <v>9.51333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>73.63</v>
+        <v>4.84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
         <v>1706</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q13" s="2">
-        <v>49.0866666666667</v>
+        <v>3.22666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>92.69</v>
+        <v>73.63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" s="2">
         <v>1706</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q14" s="2">
-        <v>61.7933333333333</v>
+        <v>49.0866666666667</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>14.19</v>
+        <v>92.69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2">
         <v>1706</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q15" s="2">
-        <v>2.365</v>
+        <v>61.7933333333333</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>143.68</v>
+        <v>14.19</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2">
         <v>1706</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0277777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.99111111111111</v>
+        <v>2.365</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>9.52</v>
+        <v>143.68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2">
         <v>1706</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
         <v>0.0277777777777778</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.264444444444444</v>
+        <v>3.99111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>59.1</v>
+        <v>9.52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2">
         <v>1706</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q18" s="2">
-        <v>4.925</v>
+        <v>0.264444444444444</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>43.52</v>
+        <v>59.1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M19" s="2">
         <v>1706</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>3.62666666666667</v>
+        <v>4.925</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>19.55</v>
+        <v>43.52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M20" s="2">
         <v>1706</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q20" s="2">
-        <v>3.25833333333333</v>
+        <v>3.62666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>7.02</v>
+        <v>19.55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2">
         <v>1706</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
-        <v>0.666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.68</v>
+        <v>3.25833333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9</v>
+        <v>7.02</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M22" s="2">
         <v>1706</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q22" s="2">
-        <v>6.6</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
-        <v>182.51</v>
+        <v>9.9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M23" s="2">
         <v>1706</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q23" s="2">
-        <v>12.1673333333333</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>21.32</v>
+        <v>182.51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M24" s="2">
         <v>1706</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2">
-        <v>0.4</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q24" s="2">
-        <v>8.528</v>
+        <v>12.1673333333333</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>292</v>
+        <v>21.32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M25" s="2">
         <v>1706</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q25" s="2">
-        <v>29.2</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>636</v>
+        <v>292</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M26" s="2">
         <v>1706</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2">
-        <v>0.0133333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="Q26" s="2">
-        <v>8.48</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>21</v>
+        <v>636</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M27" s="2">
         <v>1706</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2">
         <v>0.0133333333333333</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.28</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M28" s="2">
         <v>1706</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" s="2">
-        <v>0.1</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="Q28" s="2">
-        <v>5.6</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M29" s="2">
         <v>1706</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="2">
-        <v>0.0133333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.0666666666666667</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>579</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M30" s="2">
         <v>1706</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2">
         <v>0.0133333333333333</v>
       </c>
       <c r="Q30" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <v>579</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q31" s="2">
         <v>7.72</v>
       </c>
     </row>
@@ -2299,59 +2361,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2">
         <v>70.06</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2">
         <v>181.12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>181.12</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2369,138 +2538,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2">
-        <v>860288</v>
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
-        <v>354932</v>
+        <v>860288</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
-        <v>19499</v>
+        <v>354932</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
-        <v>113369</v>
+        <v>19499</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2">
-        <v>726427</v>
+        <v>113369</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2">
+        <v>726427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
         <v>1079</v>
       </c>
     </row>
@@ -2511,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,55 +2708,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>119</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>851264(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>集集郵局（第9支局）</t>
@@ -2443,7 +2446,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>89</v>
@@ -2496,7 +2499,7 @@
         <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>89</v>
@@ -2538,19 +2541,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2558,19 +2561,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2578,13 +2581,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
@@ -2598,13 +2601,13 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>58</v>
@@ -2618,13 +2621,13 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>58</v>
@@ -2638,13 +2641,13 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
@@ -2658,13 +2661,13 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>58</v>
@@ -2678,13 +2681,13 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>60</v>
@@ -2708,10 +2711,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
@@ -2722,10 +2725,10 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
@@ -2736,10 +2739,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
@@ -2750,10 +2753,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
@@ -2764,10 +2767,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>

--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -313,28 +313,37 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>集集郵局（第9支局）</t>
   </si>
   <si>
+    <t>南投縣集集鎮農會信用部</t>
+  </si>
+  <si>
+    <t>臺灣銀行南投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行集集分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1609930</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮農會信用部</t>
-  </si>
-  <si>
-    <t>臺灣銀行南投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行集集分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -2533,13 +2542,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2550,33 +2559,75 @@
         <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="2">
+        <v>1609930</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>79</v>
       </c>
@@ -2584,10 +2635,10 @@
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>60</v>
@@ -2595,8 +2646,29 @@
       <c r="F3" s="2">
         <v>860288</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -2604,10 +2676,10 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>58</v>
@@ -2615,19 +2687,40 @@
       <c r="F4" s="2">
         <v>354932</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>58</v>
@@ -2635,8 +2728,29 @@
       <c r="F5" s="2">
         <v>19499</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>82</v>
       </c>
@@ -2644,10 +2758,10 @@
         <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
@@ -2655,8 +2769,29 @@
       <c r="F6" s="2">
         <v>113369</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>83</v>
       </c>
@@ -2664,10 +2799,10 @@
         <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>58</v>
@@ -2675,8 +2810,29 @@
       <c r="F7" s="2">
         <v>726427</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>84</v>
       </c>
@@ -2684,16 +2840,37 @@
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="2">
         <v>1079</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2711,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
@@ -2725,10 +2902,10 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
@@ -2739,10 +2916,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
@@ -2753,10 +2930,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
@@ -2767,10 +2944,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>

--- a/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
+++ b/legislator/property/output/normal/林明溱_2013-12-25_財產申報表_tmpfac21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -346,15 +346,18 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>國泰人壽鍾愛终身壽險(分期繳納）</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>國泰住院醫療终身健康保險(分期繳納）</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>南山康寧終身壽險（分期繳納）</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2880,66 +2886,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>119</v>
       </c>
@@ -2947,10 +3037,31 @@
         <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
